--- a/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-JP-Specimen.xlsx
+++ b/jpcore-r4/feature/swg2_diagnosticreport-radiology/StructureDefinition-JP-Specimen.xlsx
@@ -376,7 +376,7 @@
     <t>Specimen.meta.versionId</t>
   </si>
   <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+    <t xml:space="preserve">バージョン固有の識別子 </t>
   </si>
   <si>
     <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
@@ -418,7 +418,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+    <t>「リソースがどこから来たかを特定する」</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
@@ -441,7 +441,7 @@
     <t>このリソースが適合を主張するプロファイル</t>
   </si>
   <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
   </si>
   <si>
     <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
